--- a/模板文件.xlsx
+++ b/模板文件.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanrenya/Downloads/v3.0.7医院职工满意度-数据统计原型/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanrenya/Documents/node-project/electron-pay-systerm/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12640"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>序号</t>
   </si>
@@ -82,6 +82,26 @@
   <si>
     <t>工资</t>
     <rPh sb="0" eb="1">
+      <t>gong'zi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯补贴</t>
+    <rPh sb="0" eb="1">
+      <t>tong'xun'fe</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu'tie</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变动工资</t>
+    <rPh sb="0" eb="1">
+      <t>bian'd</t>
+    </rPh>
+    <rPh sb="2" eb="3">
       <t>gong'zi</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -453,27 +473,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.1640625" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" customWidth="1"/>
+    <col min="14" max="14" width="15.1640625" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,35 +512,41 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -537,18 +563,18 @@
       <c r="F2" s="3">
         <v>1200</v>
       </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
         <v>31</v>
       </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
       <c r="K2" s="4">
         <v>0</v>
       </c>
@@ -558,10 +584,16 @@
       <c r="M2" s="4">
         <v>0</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
